--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35BF8CE-E13B-40BA-9592-CC3AFD62E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B3521-C465-4CE6-AABC-6B5D8D799D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1505,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1799,7 +1802,10 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
         <v>121</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B3521-C465-4CE6-AABC-6B5D8D799D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AEBDC-F1E8-4621-9B2A-F16498333FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1512,82 +1512,85 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AEBDC-F1E8-4621-9B2A-F16498333FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C572F9-F76A-4BAF-B159-736830FE7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1016,7 +1016,7 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1069,19 +1069,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1106,19 +1106,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1151,19 +1151,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1207,19 +1207,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1291,57 +1291,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1365,12 +1365,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1394,12 +1394,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1423,12 +1423,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1436,22 +1436,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1499,12 +1499,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1520,87 +1520,87 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1765,17 +1765,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1783,12 +1783,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1812,167 +1812,167 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -1980,12 +1980,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
@@ -1993,77 +1993,77 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2079,197 +2079,197 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C572F9-F76A-4BAF-B159-736830FE7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE343D-0667-4D4C-AFAC-78500DE0545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -1345,7 +1345,7 @@
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE343D-0667-4D4C-AFAC-78500DE0545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73F24E-6EFF-4E81-A71E-D6DE4D1C2656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1008,7 +1008,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1016,7 +1016,7 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1069,19 +1069,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1106,19 +1106,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1151,19 +1151,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1207,19 +1207,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1292,27 +1292,27 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1320,12 +1320,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1365,12 +1365,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1394,12 +1394,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1423,12 +1423,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1436,22 +1436,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1499,12 +1499,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1520,87 +1520,90 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1765,17 +1768,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1783,12 +1786,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1812,167 +1815,167 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -1980,12 +1983,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
@@ -1993,77 +1996,77 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2079,197 +2082,197 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73F24E-6EFF-4E81-A71E-D6DE4D1C2656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798316EE-AB18-4694-A554-CBB57FDE6461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -751,26 +751,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -782,8 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1358,7 @@
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1382,7 +1366,7 @@
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1390,7 +1374,7 @@
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1411,7 +1395,7 @@
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1419,7 +1403,7 @@
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>69</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798316EE-AB18-4694-A554-CBB57FDE6461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC02C4-8EB7-4150-AC07-582A975B26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,7 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1386,7 @@
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1395,7 +1394,7 @@
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1403,7 +1402,7 @@
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1963,7 +1962,7 @@
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2054,7 +2053,7 @@
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2062,7 +2061,7 @@
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="5" t="s">
         <v>172</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC02C4-8EB7-4150-AC07-582A975B26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D03492-D796-4672-9F68-BC5B471A2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -999,7 +999,7 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1052,19 +1052,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1089,19 +1089,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1134,19 +1134,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1190,19 +1190,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1274,28 +1274,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1303,12 +1303,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1348,12 +1348,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1377,12 +1377,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1406,12 +1406,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1419,22 +1419,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1482,12 +1482,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1503,17 +1503,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1521,72 +1521,72 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1751,17 +1751,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1769,12 +1769,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1798,167 +1798,167 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -1966,90 +1966,90 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2065,197 +2065,197 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D03492-D796-4672-9F68-BC5B471A2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF268D-71DA-4215-9957-F86A0EB3DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -696,7 +696,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,6 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,10 +995,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -999,7 +1006,7 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1052,19 +1059,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1089,20 +1096,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1112,8 +1119,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1123,8 +1130,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1133,20 +1140,23 @@
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1190,19 +1200,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1274,28 +1284,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1303,12 +1313,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1316,7 +1326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1348,12 +1358,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1377,12 +1387,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1398,7 +1408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1406,12 +1416,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1419,22 +1429,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1442,7 +1452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1450,7 +1460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1482,12 +1492,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1495,7 +1505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1503,17 +1513,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1521,72 +1531,72 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1718,7 +1728,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1751,38 +1761,38 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1798,167 +1808,167 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -1974,82 +1984,82 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2057,7 +2067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2065,197 +2075,197 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF268D-71DA-4215-9957-F86A0EB3DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8016BC-7035-4CCA-A59E-24AC7F6B4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1532,12 +1532,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>88</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8016BC-7035-4CCA-A59E-24AC7F6B4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D73AA-8F72-43D2-9109-FD05C5152DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -663,7 +663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -694,6 +694,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -758,10 +765,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -774,8 +782,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -995,7 +1005,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1013,7 @@
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
     <col min="3" max="3" width="53.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -1156,19 +1166,22 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1177,8 +1190,11 @@
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1200,19 +1216,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1223,7 +1239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1234,7 +1250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1284,14 +1300,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1501,7 +1517,7 @@
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1509,7 +1525,7 @@
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1527,7 +1543,7 @@
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1535,7 +1551,7 @@
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1802,7 +1818,7 @@
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1810,7 +1826,7 @@
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>121</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D73AA-8F72-43D2-9109-FD05C5152DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40798CB6-4C0A-486A-87EE-270817F8EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1564,22 +1564,31 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2012,7 +2021,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" t="s">
         <v>157</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40798CB6-4C0A-486A-87EE-270817F8EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4DCD4-F1D4-499A-A593-232966F8922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1559,7 @@
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1593,7 +1593,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
         <v>93</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4DCD4-F1D4-499A-A593-232966F8922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609946DA-D62B-44AC-9EC6-DE8FAE403AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1567,7 @@
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1596,17 +1596,23 @@
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
         <v>95</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609946DA-D62B-44AC-9EC6-DE8FAE403AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE36582-9B79-4972-AF6D-48421D464E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1617,12 +1617,18 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2033,7 +2039,7 @@
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>157</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE36582-9B79-4972-AF6D-48421D464E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712351F2-EDF7-421E-B30E-5DB3B2675483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1855,12 +1855,18 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2175,12 +2181,18 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" t="s">
         <v>184</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712351F2-EDF7-421E-B30E-5DB3B2675483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3050D777-8DAE-436D-B279-723B2C051A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="213">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>Required Substring 9:12:48</t>
+  </si>
+  <si>
+    <t>learn linear sieve</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2125,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2130,57 +2133,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2196,87 +2199,93 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="E144" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3050D777-8DAE-436D-B279-723B2C051A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6167E67-875A-4873-96CB-E3B231DC305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="217">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -659,14 +659,26 @@
     <t>Required Substring 9:12:48</t>
   </si>
   <si>
-    <t>learn linear sieve</t>
+    <t>linear sieve</t>
+  </si>
+  <si>
+    <t>extended euclidian formula</t>
+  </si>
+  <si>
+    <t>multinomial coefficient</t>
+  </si>
+  <si>
+    <t>sticks and stones https://docs.google.com/document/d/1iSeVo304aPS-MsOr5iHaWk0cv9dDnojdYqhD_jT-jvY/edit#heading=h.tg12nixvgg5z</t>
+  </si>
+  <si>
+    <t>dp - derangements https://www.youtube.com/watch?v=di40xKgSCEs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -703,6 +715,13 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -772,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -786,6 +805,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1303,15 +1326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,7 +2230,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2215,77 +2238,104 @@
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="C147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="E148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C149" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6167E67-875A-4873-96CB-E3B231DC305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901B699-6C78-4823-9FAC-BD4F5D956BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="218">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>dp - derangements https://www.youtube.com/watch?v=di40xKgSCEs</t>
+  </si>
+  <si>
+    <t>matrix exponentiation https://www.youtube.com/watch?v=e-sbCk5FOF8</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1330,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2291,8 +2294,14 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="5" t="s">
         <v>192</v>
+      </c>
+      <c r="C151" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2901B699-6C78-4823-9FAC-BD4F5D956BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4001DDA3-5A89-4139-A94C-3584F07CE8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="221">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -675,6 +675,15 @@
   </si>
   <si>
     <t>matrix exponentiation https://www.youtube.com/watch?v=e-sbCk5FOF8</t>
+  </si>
+  <si>
+    <t>knapsack+math</t>
+  </si>
+  <si>
+    <t>linearity of expectation</t>
+  </si>
+  <si>
+    <t>weighted probability</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2305,33 +2314,60 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
+      <c r="C152" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="C153" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
+      <c r="C154" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="C155" t="s">
+        <v>196</v>
+      </c>
+      <c r="E155" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
+      <c r="C156" t="s">
+        <v>197</v>
+      </c>
+      <c r="E156" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="C157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E157" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4001DDA3-5A89-4139-A94C-3584F07CE8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD518BE-78AA-437E-89EB-EAE66E1C311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="226">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -684,6 +684,21 @@
   </si>
   <si>
     <t>weighted probability</t>
+  </si>
+  <si>
+    <t>linearity of expectation+gaussian rounding</t>
+  </si>
+  <si>
+    <t>game theory dp</t>
+  </si>
+  <si>
+    <t>nim sum (total xor)</t>
+  </si>
+  <si>
+    <t>grundy values https://cp-algorithms.com/game_theory/sprague-grundy-nim.html</t>
+  </si>
+  <si>
+    <t>staircase nim (odd stairs)</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2371,66 +2386,96 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
+      <c r="C158" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="C159" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C160" t="s">
+        <v>201</v>
+      </c>
+      <c r="E160" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C161" t="s">
+        <v>202</v>
+      </c>
+      <c r="E161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+      <c r="E162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD518BE-78AA-437E-89EB-EAE66E1C311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FADABF3-104C-4F7C-80B8-ECFC28A80BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="229">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>staircase nim (odd stairs)</t>
+  </si>
+  <si>
+    <t>bellman ford cycles</t>
+  </si>
+  <si>
+    <t>double dijkstra</t>
+  </si>
+  <si>
+    <t>b-f default dist = 0</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1924,23 +1933,44 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="C79" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FADABF3-104C-4F7C-80B8-ECFC28A80BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726ECE5-BAFB-4D0C-984A-D061F5C33013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -708,6 +708,18 @@
   </si>
   <si>
     <t>b-f default dist = 0</t>
+  </si>
+  <si>
+    <t>modified dijkstra</t>
+  </si>
+  <si>
+    <t>dfs+active array</t>
+  </si>
+  <si>
+    <t>topological sort</t>
+  </si>
+  <si>
+    <t>dfs+dp</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1082,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1078,7 +1090,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1131,19 +1143,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1168,19 +1180,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1216,19 +1228,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1278,19 +1290,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1362,28 +1374,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="D74" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1391,12 +1403,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1436,12 +1448,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1457,7 +1469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1465,12 +1477,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1494,12 +1506,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1507,22 +1519,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1570,12 +1582,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1591,17 +1603,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1633,12 +1645,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1694,17 +1706,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1869,17 +1881,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1887,12 +1899,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -1932,7 +1944,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -1962,7 +1974,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -1973,137 +1985,167 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2111,7 +2153,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2119,12 +2161,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2132,72 +2174,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2205,7 +2247,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2213,57 +2255,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2271,7 +2313,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2279,7 +2321,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2287,7 +2329,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2295,7 +2337,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2303,7 +2345,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2314,7 +2356,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2325,7 +2367,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2336,7 +2378,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2347,7 +2389,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2358,7 +2400,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2366,7 +2408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2374,7 +2416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2382,7 +2424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2393,7 +2435,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2404,7 +2446,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2415,7 +2457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2426,7 +2468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2437,7 +2479,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2448,7 +2490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2459,7 +2501,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2470,42 +2512,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726ECE5-BAFB-4D0C-984A-D061F5C33013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9D3389-79FF-4572-A8A7-E119A852A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="237">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -720,6 +720,18 @@
   </si>
   <si>
     <t>dfs+dp</t>
+  </si>
+  <si>
+    <t>sssp (modified dijkstra)</t>
+  </si>
+  <si>
+    <t>binary exponentiation</t>
+  </si>
+  <si>
+    <t>euler totient modulo rule</t>
+  </si>
+  <si>
+    <t>combinatorics (mod inverse) + grouping</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D74" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -2041,8 +2053,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.6">
@@ -2309,22 +2327,31 @@
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="5" t="s">
         <v>183</v>
+      </c>
+      <c r="E142" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="5" t="s">
         <v>184</v>
+      </c>
+      <c r="E143" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="C144" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="E144" t="s">
         <v>212</v>
       </c>
@@ -2333,16 +2360,22 @@
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="5" t="s">
         <v>186</v>
+      </c>
+      <c r="E145" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="5" t="s">
         <v>187</v>
+      </c>
+      <c r="E146" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.6">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9D3389-79FF-4572-A8A7-E119A852A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF544D-B5BC-46AD-95AD-557B279F462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="238">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>combinatorics (mod inverse) + grouping</t>
+  </si>
+  <si>
+    <t>binary lifting</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1102,7 +1105,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1155,19 +1158,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1192,19 +1195,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1240,19 +1243,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1302,19 +1305,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1387,27 +1390,27 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1415,12 +1418,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1460,12 +1463,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1489,12 +1492,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1518,12 +1521,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1531,22 +1534,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1594,12 +1597,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1615,17 +1618,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1657,12 +1660,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1718,17 +1721,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1893,17 +1896,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1911,12 +1914,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2063,107 +2066,113 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2171,7 +2180,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2179,12 +2188,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2192,72 +2201,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2273,57 +2282,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2441,7 +2450,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2457,7 +2466,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2501,7 +2510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2545,42 +2554,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF544D-B5BC-46AD-95AD-557B279F462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6660A9-2B4E-4DD8-99FB-D49C3D0426EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +825,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -854,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -872,6 +878,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1097,7 +1104,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1105,7 +1112,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1158,19 +1165,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1195,19 +1202,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1243,19 +1250,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1305,19 +1312,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1389,28 +1396,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1418,12 +1425,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1431,7 +1438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1463,12 +1470,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1492,12 +1499,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1521,12 +1528,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1534,22 +1541,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1597,12 +1604,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1618,17 +1625,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1652,7 +1659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1660,12 +1667,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1697,7 +1704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1713,7 +1720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1721,17 +1728,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1841,7 +1848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1874,7 +1881,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1896,17 +1903,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1914,12 +1921,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1927,7 +1934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2066,7 +2073,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2077,102 +2084,102 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2180,7 +2187,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2188,12 +2195,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2201,72 +2208,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2282,57 +2289,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2343,7 +2350,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2354,7 +2361,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2376,7 +2383,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2387,40 +2394,40 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E147" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E148" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2431,7 +2438,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2458,7 +2465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2554,42 +2561,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF544D-B5BC-46AD-95AD-557B279F462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E83D0-D9DC-428E-AD92-075B7114CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E147" t="s">
@@ -2402,7 +2402,7 @@
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E148" t="s">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61E83D0-D9DC-428E-AD92-075B7114CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34376507-F653-4E2F-AE5B-50BD2150E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="242">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -735,6 +735,18 @@
   </si>
   <si>
     <t>binary lifting</t>
+  </si>
+  <si>
+    <t>ufds</t>
+  </si>
+  <si>
+    <t>ufds (kruskal)</t>
+  </si>
+  <si>
+    <t>kosaraju</t>
+  </si>
+  <si>
+    <t>strongly connected components (scc) - kosaraju algorithm</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2088,23 +2100,47 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="C91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>140</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,7 +2449,7 @@
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E149" s="11" t="s">
@@ -2424,7 +2460,7 @@
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="5" t="s">
         <v>191</v>
       </c>
       <c r="E150" s="12" t="s">
@@ -2435,7 +2471,7 @@
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="5" t="s">
         <v>192</v>
       </c>
       <c r="E151" s="12" t="s">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34376507-F653-4E2F-AE5B-50BD2150E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4930AA3-69B9-4F5A-BE32-565FD914FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="244">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -747,6 +747,12 @@
   </si>
   <si>
     <t>strongly connected components (scc) - kosaraju algorithm</t>
+  </si>
+  <si>
+    <t>2-SAT</t>
+  </si>
+  <si>
+    <t>scc + dp + condensed graph</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +843,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -866,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -884,6 +896,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1109,7 +1122,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1117,7 +1130,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1170,19 +1183,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1207,19 +1220,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1255,19 +1268,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1317,19 +1330,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1351,7 +1364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1401,28 +1414,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1430,12 +1443,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1451,7 +1464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1459,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1467,7 +1480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1475,12 +1488,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1504,12 +1517,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1525,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1533,12 +1546,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1546,22 +1559,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1569,7 +1582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1577,7 +1590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1585,7 +1598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1601,7 +1614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1609,12 +1622,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1630,17 +1643,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1648,7 +1661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1672,12 +1685,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1685,7 +1698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1701,7 +1714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1709,7 +1722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1725,7 +1738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1733,17 +1746,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1754,7 +1767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1765,7 +1778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1776,7 +1789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1787,7 +1800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1798,7 +1811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1809,7 +1822,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1820,7 +1833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1831,7 +1844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1842,7 +1855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1864,7 +1877,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1886,7 +1899,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1897,7 +1910,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1908,17 +1921,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1926,12 +1939,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1939,7 +1952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1955,7 +1968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -1963,7 +1976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -1979,7 +1992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -1990,7 +2003,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2012,7 +2025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2023,7 +2036,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2034,7 +2047,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2045,7 +2058,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2056,7 +2069,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2067,7 +2080,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2078,7 +2091,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2089,17 +2102,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2121,7 +2134,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2132,7 +2145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2143,72 +2156,81 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="E94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2216,7 +2238,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2224,12 +2246,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2237,72 +2259,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2310,7 +2332,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2318,57 +2340,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2379,7 +2401,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2390,7 +2412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2401,7 +2423,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2412,7 +2434,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2423,7 +2445,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2434,7 +2456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2445,7 +2467,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2456,7 +2478,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2467,7 +2489,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2478,7 +2500,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2486,7 +2508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2494,7 +2516,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2502,7 +2524,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2513,7 +2535,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2524,7 +2546,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2535,7 +2557,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2546,7 +2568,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2557,7 +2579,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2568,7 +2590,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2579,7 +2601,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2590,42 +2612,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4930AA3-69B9-4F5A-BE32-565FD914FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36D69F-5D23-4A69-9785-FBA81C8F7A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -2504,7 +2504,7 @@
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="5" t="s">
         <v>193</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36D69F-5D23-4A69-9785-FBA81C8F7A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F961B082-BE14-479E-80BC-D3514E4B0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -753,6 +753,12 @@
   </si>
   <si>
     <t>scc + dp + condensed graph</t>
+  </si>
+  <si>
+    <t>two heaps sliding window</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -1635,7 +1641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1643,17 +1649,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1685,12 +1691,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1714,15 +1720,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1746,28 +1755,31 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1877,7 +1889,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -2512,7 +2524,7 @@
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="5" t="s">
         <v>194</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F961B082-BE14-479E-80BC-D3514E4B0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6112B14-DF98-4E14-AD88-D406102490C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -2532,7 +2532,7 @@
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="5" t="s">
         <v>195</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6112B14-DF98-4E14-AD88-D406102490C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D615386-8EC0-457B-B2DF-A229B8911329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -1786,7 +1786,7 @@
       <c r="C52" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       <c r="C53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="C54" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>103</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D615386-8EC0-457B-B2DF-A229B8911329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC4B958-9E7E-4A8F-AA28-64B1E5DB3A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="248">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -759,6 +759,12 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>modified euler tour; if traversing all edges without repetition and returning to start node, each node will have an even number of adjacent edges. If no return to start node, each node can have even or odd number of adjacent edges.</t>
+  </si>
+  <si>
+    <t>de bruijn sequence</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1136,7 +1142,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1189,19 +1195,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1226,19 +1232,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1274,19 +1280,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1336,19 +1342,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1420,28 +1426,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1449,12 +1455,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1494,12 +1500,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1523,12 +1529,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1552,12 +1558,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1565,22 +1571,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1628,12 +1634,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1649,17 +1655,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1691,12 +1697,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1755,17 +1761,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1933,17 +1939,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1951,12 +1957,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2114,17 +2120,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2187,62 +2193,71 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2258,12 +2273,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2271,72 +2286,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2352,57 +2367,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2424,7 +2439,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2446,7 +2461,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2468,7 +2483,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2501,7 +2516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2528,7 +2543,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2536,7 +2551,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2547,7 +2562,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2569,7 +2584,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2580,7 +2595,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2613,7 +2628,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2624,42 +2639,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D615386-8EC0-457B-B2DF-A229B8911329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21661B98-C407-428A-ACF5-8E8328E938E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -2540,7 +2540,7 @@
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="5" t="s">
         <v>196</v>
       </c>
       <c r="E155" t="s">
@@ -2551,7 +2551,7 @@
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E156" t="s">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBCC76F-D549-4D39-9335-AF27816B37A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58B128-476D-4D21-A926-0557CE1199D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -1735,7 +1735,7 @@
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>95</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58B128-476D-4D21-A926-0557CE1199D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC9DA6-6E6D-4103-92DC-61454E9774B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="248">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -759,6 +759,12 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>eulerian path</t>
+  </si>
+  <si>
+    <t>eulerian path + bit manipulation</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1136,7 +1142,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1189,19 +1195,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1226,19 +1232,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1274,19 +1280,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1336,19 +1342,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1420,28 +1426,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1449,12 +1455,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1494,12 +1500,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1523,12 +1529,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1552,12 +1558,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1565,22 +1571,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1628,12 +1634,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1649,17 +1655,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1691,12 +1697,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1755,17 +1761,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1933,17 +1939,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1951,12 +1957,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2114,17 +2120,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2187,62 +2193,74 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A97" t="s">
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2258,12 +2276,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2271,72 +2289,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2344,7 +2362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2352,57 +2370,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2424,7 +2442,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2446,7 +2464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2457,7 +2475,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2468,7 +2486,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2479,7 +2497,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2490,7 +2508,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2528,7 +2546,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2536,7 +2554,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2569,7 +2587,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2580,7 +2598,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2591,7 +2609,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2613,7 +2631,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2624,42 +2642,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC9DA6-6E6D-4103-92DC-61454E9774B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C02B2-BE5D-4D01-BEF1-A4B2EA65C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="249">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>eulerian path + bit manipulation</t>
+  </si>
+  <si>
+    <t>eulerian path + in/out degree</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2219,14 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C02B2-BE5D-4D01-BEF1-A4B2EA65C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78011348-D280-47D7-BE7D-D3A7B93167B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="252">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -768,6 +768,15 @@
   </si>
   <si>
     <t>eulerian path + in/out degree</t>
+  </si>
+  <si>
+    <t>bitmask dp</t>
+  </si>
+  <si>
+    <t>warnsdorff knight tour</t>
+  </si>
+  <si>
+    <t>max flow (dinic's)</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1439,7 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2230,18 +2239,36 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="C99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="C100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78011348-D280-47D7-BE7D-D3A7B93167B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918EA5D-D72D-4FF9-974F-BD00BF5B42D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="255">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -777,6 +777,15 @@
   </si>
   <si>
     <t>max flow (dinic's)</t>
+  </si>
+  <si>
+    <t>max flow + min cut (extra dfs) | edmonsds karp here is faster than dinic</t>
+  </si>
+  <si>
+    <t>maximum bipartite matching</t>
+  </si>
+  <si>
+    <t>max flow + dfs path recovery</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2272,18 +2281,36 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>151</v>
+      </c>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7918EA5D-D72D-4FF9-974F-BD00BF5B42D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7EC707-BF05-4CB0-8A0C-1359F5F6192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1163,7 +1163,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1216,19 +1216,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1253,19 +1253,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1301,19 +1301,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1363,19 +1363,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1447,28 +1447,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1476,12 +1476,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1521,12 +1521,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1550,12 +1550,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1579,12 +1579,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1592,22 +1592,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1655,12 +1655,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1676,17 +1676,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1718,12 +1718,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1766,33 +1766,33 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1839,29 +1839,29 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1960,17 +1960,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1978,12 +1978,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2141,17 +2141,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A102" s="5" t="s">
         <v>149</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" s="5" t="s">
         <v>151</v>
       </c>
@@ -2313,17 +2313,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2339,12 +2339,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2352,72 +2352,72 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2433,57 +2433,57 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2639,18 +2639,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E157" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2705,42 +2705,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7EC707-BF05-4CB0-8A0C-1359F5F6192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC61D79-3C95-454E-876C-E988F2348AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="258">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -786,6 +786,15 @@
   </si>
   <si>
     <t>max flow + dfs path recovery</t>
+  </si>
+  <si>
+    <t>dfs (node depth)</t>
+  </si>
+  <si>
+    <t>dfs - google interview question</t>
+  </si>
+  <si>
+    <t>segment tree + lazy propagation</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1163,7 +1172,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1216,19 +1225,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1253,19 +1262,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1301,19 +1310,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1363,19 +1372,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1447,28 +1456,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1476,12 +1485,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1521,12 +1530,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1550,12 +1559,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1563,7 +1572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1579,12 +1588,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1592,22 +1601,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1655,12 +1664,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1676,17 +1685,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1718,12 +1727,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1782,17 +1791,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1839,7 +1848,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1861,7 +1870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1960,17 +1969,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1978,12 +1987,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -2007,7 +2016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2141,17 +2150,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2214,7 +2223,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>149</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>151</v>
       </c>
@@ -2313,17 +2322,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2339,12 +2348,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2352,72 +2361,75 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2433,57 +2445,69 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A131" t="s">
+      <c r="C130" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="C131" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2494,7 +2518,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2505,7 +2529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2527,7 +2551,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2538,7 +2562,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2549,7 +2573,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2560,7 +2584,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2571,7 +2595,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2582,7 +2606,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2593,7 +2617,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2601,7 +2625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2609,7 +2633,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2617,7 +2641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2639,7 +2663,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2650,7 +2674,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2672,7 +2696,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2683,7 +2707,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2694,7 +2718,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2705,42 +2729,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC61D79-3C95-454E-876C-E988F2348AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716ACE5E-D009-4AA5-B409-4465D58D4F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="259">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>segment tree + lazy propagation</t>
+  </si>
+  <si>
+    <t>knapsack</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1167,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1172,7 +1175,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1225,19 +1228,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1262,19 +1265,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1310,19 +1313,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1372,19 +1375,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1456,28 +1459,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1485,12 +1488,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1530,12 +1533,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1559,12 +1562,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1588,12 +1591,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1601,22 +1604,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1664,12 +1667,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1685,17 +1688,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1727,12 +1730,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1791,17 +1794,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1870,18 +1873,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1969,17 +1975,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1987,12 +1993,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2150,17 +2156,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A102" s="5" t="s">
         <v>149</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" s="5" t="s">
         <v>151</v>
       </c>
@@ -2322,17 +2328,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2348,12 +2354,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -2369,67 +2375,67 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A130" s="5" t="s">
         <v>173</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A131" s="5" t="s">
         <v>174</v>
       </c>
@@ -2467,47 +2473,47 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2529,7 +2535,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2729,42 +2735,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\git-repo\learning\c++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716ACE5E-D009-4AA5-B409-4465D58D4F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86396B4-0937-4804-94D9-895D817BACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.26953125" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
@@ -1175,7 +1175,7 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1228,19 +1228,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1265,19 +1265,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1313,19 +1313,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1375,19 +1375,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1459,28 +1459,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="113.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1488,12 +1488,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1533,12 +1533,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1562,12 +1562,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -1591,12 +1591,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1604,22 +1604,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -1667,12 +1667,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -1688,17 +1688,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -1730,12 +1730,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1794,17 +1794,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>108</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>113</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>114</v>
       </c>
@@ -1975,17 +1975,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>117</v>
       </c>
@@ -1993,12 +1993,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>119</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>120</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>129</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>131</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>133</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
@@ -2156,17 +2156,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>141</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>142</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>146</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>147</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>149</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>151</v>
       </c>
@@ -2328,17 +2328,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>154</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>155</v>
       </c>
@@ -2354,12 +2354,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>157</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -2375,67 +2375,67 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>171</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>172</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>173</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>174</v>
       </c>
@@ -2473,47 +2473,47 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>184</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>185</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>186</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>187</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>188</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>189</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>190</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>191</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>192</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>193</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>194</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>195</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>196</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>197</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>198</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>199</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>200</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>201</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>202</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>203</v>
       </c>
@@ -2735,42 +2735,42 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>211</v>
       </c>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86396B4-0937-4804-94D9-895D817BACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AE1A9E-DACC-4843-A1F2-615E35E3F9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2034,7 @@
       <c r="A76" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="A79" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E79" t="s">
@@ -2083,7 +2083,7 @@
       <c r="A81" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E81" t="s">
@@ -2170,7 +2170,7 @@
       <c r="A90" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E90" t="s">
@@ -2181,7 +2181,7 @@
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E91" t="s">
@@ -2288,7 +2288,7 @@
       <c r="A101" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E101" t="s">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AE1A9E-DACC-4843-A1F2-615E35E3F9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB177793-7ECB-4895-8B64-BCF76C806A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="260">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -677,9 +677,6 @@
     <t>matrix exponentiation https://www.youtube.com/watch?v=e-sbCk5FOF8</t>
   </si>
   <si>
-    <t>knapsack+math</t>
-  </si>
-  <si>
     <t>linearity of expectation</t>
   </si>
   <si>
@@ -798,6 +795,12 @@
   </si>
   <si>
     <t>knapsack</t>
+  </si>
+  <si>
+    <t>floyd warshall</t>
+  </si>
+  <si>
+    <t>knapsack+math (linearity of expectation)</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1770,7 @@
         <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1818,7 @@
         <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,7 +1887,7 @@
         <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2042,19 +2045,22 @@
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="E77" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,7 +2071,7 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,7 +2082,7 @@
         <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,7 +2093,7 @@
         <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,18 +2104,18 @@
         <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,7 +2126,7 @@
         <v>131</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,7 +2137,7 @@
         <v>132</v>
       </c>
       <c r="E85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,18 +2148,18 @@
         <v>133</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,7 +2180,7 @@
         <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,7 +2191,7 @@
         <v>138</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2202,7 @@
         <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,7 +2213,7 @@
         <v>140</v>
       </c>
       <c r="E93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,7 +2221,7 @@
         <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,7 +2232,7 @@
         <v>142</v>
       </c>
       <c r="E95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,7 +2243,7 @@
         <v>143</v>
       </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,7 +2254,7 @@
         <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,7 +2265,7 @@
         <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,7 +2276,7 @@
         <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,7 +2287,7 @@
         <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,7 +2298,7 @@
         <v>148</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,7 +2309,7 @@
         <v>149</v>
       </c>
       <c r="E102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2314,7 +2320,7 @@
         <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,7 +2331,7 @@
         <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,7 +2378,7 @@
         <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,7 +2465,7 @@
         <v>173</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,7 +2476,7 @@
         <v>174</v>
       </c>
       <c r="E131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,8 +2526,9 @@
       <c r="C142" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="D142" s="5"/>
       <c r="E142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,8 +2538,9 @@
       <c r="C143" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="D143" s="5"/>
       <c r="E143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -2542,6 +2550,7 @@
       <c r="C144" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="D144" s="5"/>
       <c r="E144" t="s">
         <v>212</v>
       </c>
@@ -2553,6 +2562,7 @@
       <c r="C145" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="D145" s="5"/>
       <c r="E145" t="s">
         <v>212</v>
       </c>
@@ -2564,8 +2574,9 @@
       <c r="C146" s="5" t="s">
         <v>187</v>
       </c>
+      <c r="D146" s="5"/>
       <c r="E146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -2575,6 +2586,7 @@
       <c r="C147" s="5" t="s">
         <v>188</v>
       </c>
+      <c r="D147" s="5"/>
       <c r="E147" t="s">
         <v>213</v>
       </c>
@@ -2586,6 +2598,7 @@
       <c r="C148" s="5" t="s">
         <v>189</v>
       </c>
+      <c r="D148" s="5"/>
       <c r="E148" t="s">
         <v>214</v>
       </c>
@@ -2597,6 +2610,7 @@
       <c r="C149" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="D149" s="5"/>
       <c r="E149" s="11" t="s">
         <v>215</v>
       </c>
@@ -2608,6 +2622,7 @@
       <c r="C150" s="5" t="s">
         <v>191</v>
       </c>
+      <c r="D150" s="5"/>
       <c r="E150" s="12" t="s">
         <v>216</v>
       </c>
@@ -2619,6 +2634,7 @@
       <c r="C151" s="5" t="s">
         <v>192</v>
       </c>
+      <c r="D151" s="5"/>
       <c r="E151" s="12" t="s">
         <v>217</v>
       </c>
@@ -2654,8 +2670,9 @@
       <c r="C155" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="D155" s="5"/>
       <c r="E155" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,7 +2683,7 @@
         <v>197</v>
       </c>
       <c r="E156" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -2677,7 +2694,7 @@
         <v>198</v>
       </c>
       <c r="E157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,7 +2705,7 @@
         <v>199</v>
       </c>
       <c r="E158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,7 +2716,7 @@
         <v>200</v>
       </c>
       <c r="E159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,7 +2727,7 @@
         <v>201</v>
       </c>
       <c r="E160" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,7 +2738,7 @@
         <v>202</v>
       </c>
       <c r="E161" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,7 +2749,7 @@
         <v>203</v>
       </c>
       <c r="E162" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB177793-7ECB-4895-8B64-BCF76C806A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A7310-0DD4-43BE-99A1-34F913B70CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2198,7 @@
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E92" t="s">
@@ -2239,7 +2239,7 @@
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E96" t="s">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A7310-0DD4-43BE-99A1-34F913B70CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673DE77-6FA9-4C59-BC39-A2C675676D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="261">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -801,6 +801,9 @@
   </si>
   <si>
     <t>knapsack+math (linearity of expectation)</t>
+  </si>
+  <si>
+    <t>lca</t>
   </si>
 </sst>
 </file>
@@ -1462,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2480,13 +2483,22 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="5" t="s">
         <v>175</v>
+      </c>
+      <c r="C132" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>176</v>
+      </c>
+      <c r="E133" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673DE77-6FA9-4C59-BC39-A2C675676D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1E6F5-D04B-4918-8D91-D06D79187AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="261">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2494,10 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" t="s">
         <v>176</v>
       </c>
       <c r="E133" t="s">

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1E6F5-D04B-4918-8D91-D06D79187AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941041AF-5EEF-46E2-B831-7A6832EE303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="261">
   <si>
     <t>1. Fibonacci Numbers</t>
   </si>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2505,7 +2505,10 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" t="s">
         <v>177</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941041AF-5EEF-46E2-B831-7A6832EE303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA4AD5B-8049-4558-B078-31BE46F030B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF2C988-5146-4620-9712-19F08C52A779}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1900,7 @@
       <c r="C58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       <c r="C59" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       <c r="C60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="C61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>110</v>
       </c>
     </row>

--- a/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
+++ b/c++/DYNAMIC PROGRAMMING PATTERNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\projects\git-repo\andrew\learning-repo\learning\c++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA4AD5B-8049-4558-B078-31BE46F030B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6739E9F-84C3-4741-B7FF-136311E83860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1944,7 @@
       <c r="C62" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>111</v>
       </c>
     </row>
